--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
@@ -829,30 +829,84 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>2021-06-15</t>
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>44362.74926832179</v>
-      </c>
-      <c r="C13" t="inlineStr">
+        <v>44362.74926832176</v>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>pavan_145</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>124</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13" s="4" t="n">
+        <v>124</v>
+      </c>
+      <c r="E13" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="4" t="n">
         <v>116</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="4" t="n">
         <v>0.36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>44364.73979796296</v>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>whatsappbulk</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>44364.75321611918</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>qwerty123rgrsn</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>77</v>
+      </c>
+      <c r="E15" t="n">
+        <v>72</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.64</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
@@ -1317,7 +1371,85 @@
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="5">
-      <c r="B8" s="7" t="n"/>
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>44364.54754861111</v>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>145_data_hstry</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>44364.65389450231</v>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>145_hstry_data</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>44364.72706061343</v>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>145_livetest</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>2.62</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -88,7 +89,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -117,6 +118,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -803,13 +805,193 @@
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>44368.71338569444</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>145_mndyto</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-24</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>44371.61691611111</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>146_fsttst</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-25</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>44372.70130060185</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>146_replica</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-25</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44372.81805153935</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>146_msttomst</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44375.57728650463</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>146_thrdcycle</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44375.73294268519</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>146_rgrsncycle</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44376.27128231482</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>146_finalrun</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.76</v>
+      </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
     <row r="1048572" ht="12.8" customHeight="1" s="6"/>
@@ -830,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -1125,6 +1307,33 @@
       </c>
       <c r="G10" s="5" t="n">
         <v>2.16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>44376.59246452027</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>146_beta</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.07</v>
       </c>
     </row>
   </sheetData>
@@ -1438,34 +1647,58 @@
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="6">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
       <c r="B11" s="9" t="n">
-        <v>44365.76734051302</v>
-      </c>
-      <c r="C11" t="inlineStr">
+        <v>44365.76734050926</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>145_lstrnfdy</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>75</v>
-      </c>
-      <c r="E11" t="n">
-        <v>75</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="D11" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="5" t="n">
         <v>2.07</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>44369.79574384259</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>145_hotfixtue</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>2.06</v>
+      </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="6">
       <c r="B13" s="8" t="n"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -991,6 +991,33 @@
       </c>
       <c r="G18" s="5" t="n">
         <v>1.76</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-06</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44383.75794017361</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>146_infrachngs</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -1310,29 +1337,29 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
       <c r="B11" s="10" t="n">
-        <v>44376.59246452027</v>
-      </c>
-      <c r="C11" t="inlineStr">
+        <v>44376.59246452546</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>146_beta</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>75</v>
-      </c>
-      <c r="E11" t="n">
-        <v>75</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="D11" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="5" t="n">
         <v>2.07</v>
       </c>
     </row>
@@ -1349,7 +1376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -1701,7 +1728,85 @@
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>44376.84729552083</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>146_livetst</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-02</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44379.65442032408</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>146_infrachngs</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2021-07-08</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44385.2990189074</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>146_earlyip</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>75</v>
+      </c>
+      <c r="E15" t="n">
+        <v>75</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.77</v>
+      </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -1018,6 +1018,114 @@
       </c>
       <c r="G19" s="5" t="n">
         <v>1.87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44399.64272868056</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>147_tolive</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>44440.739491875</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>149_fstcyc</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2021-09-03</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44442.49092253472</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>149_regression</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2021-10-06</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>44475.70605298437</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>151_regression</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>75</v>
+      </c>
+      <c r="E23" t="n">
+        <v>73</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.15</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -1039,7 +1147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -1363,6 +1471,87 @@
         <v>2.07</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>44399.87576797454</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>147_beta</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>69</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-23</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44400.43916120371</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>147_frdy</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44424.54756571759</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>148_beta</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1376,7 +1565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -1782,30 +1971,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>2021-07-08</t>
         </is>
       </c>
       <c r="B15" s="10" t="n">
-        <v>44385.2990189074</v>
-      </c>
-      <c r="C15" t="inlineStr">
+        <v>44385.29901891204</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>146_earlyip</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>75</v>
-      </c>
-      <c r="E15" t="n">
-        <v>75</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="D15" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="5" t="n">
         <v>2.77</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-23</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44400.71600005787</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>147_live</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44424.90526318287</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>148_live</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -1102,30 +1102,84 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>2021-10-06</t>
         </is>
       </c>
       <c r="B23" s="10" t="n">
-        <v>44475.70605298437</v>
-      </c>
-      <c r="C23" t="inlineStr">
+        <v>44475.70605298611</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>151_regression</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>75</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E23" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="5" t="n">
         <v>3.15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2021-10-26</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>44495.65657489583</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>152_fstcycle</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>44497.38869483797</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>152_fnlrgrsn</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -1147,7 +1201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -1552,6 +1606,33 @@
         <v>2.63</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44497.62782178241</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>152_beta</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1565,7 +1646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -2049,6 +2130,33 @@
       </c>
       <c r="G17" s="5" t="n">
         <v>2.52</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44497.86153741145</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>152_livetest</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>75</v>
+      </c>
+      <c r="E18" t="n">
+        <v>75</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.87</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -1180,6 +1180,249 @@
       </c>
       <c r="G25" s="5" t="n">
         <v>2.32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-17</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>44517.61274765046</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>153rsgn</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-18</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>44518.43918203704</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>153fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>44536.45421430556</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>154_fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>44553.46567641204</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>155_fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-03</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>44564.65428175926</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>lodash</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>44581.42451194445</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>156_fnlrsgn</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>44589.59033946759</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>156audit</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2022-02-07</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>44599.7830609838</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>secondcycle_157</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>44600.42482518518</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>157_fnl</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -1201,7 +1444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -1633,6 +1876,141 @@
         <v>2.76</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-18</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44518.58060589121</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>153_beta</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44536.55787528935</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>154_beta</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44553.541855625</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>155_beta</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44581.54234188658</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>156_beta</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44600.67272861111</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>157_beta</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1646,7 +2024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -2133,30 +2511,138 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>2021-10-28</t>
         </is>
       </c>
       <c r="B18" s="10" t="n">
-        <v>44497.86153741145</v>
-      </c>
-      <c r="C18" t="inlineStr">
+        <v>44497.86153740741</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>152_livetest</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>75</v>
-      </c>
-      <c r="E18" t="n">
-        <v>75</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="D18" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="5" t="n">
         <v>2.87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-23</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44523.45131222222</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>153_live</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44536.87050745371</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>154_live</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>44581.83929369213</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>156_live</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44600.86940020887</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>157_live</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>75</v>
+      </c>
+      <c r="E22" t="n">
+        <v>73</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -1423,6 +1423,195 @@
       </c>
       <c r="G34" s="5" t="n">
         <v>2.17</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>44622.67217145833</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>158scndcycle</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>44623.43955366898</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>158fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-24</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>44644.72108902778</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>159fstcycle</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>44648.43756545139</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>159fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>44650.51364738426</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>160coludtest</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>44659.6622774537</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>160fnlcould</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>44663.40895092593</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>160fnltest</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -1444,7 +1633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -2011,6 +2200,87 @@
         <v>2.4</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>44623.5474814699</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>158_beta</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44648.5558503588</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>159beta</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>44663.56440491898</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>160_beta</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2024,7 +2294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -2619,30 +2889,138 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>2022-02-08</t>
         </is>
       </c>
       <c r="B22" s="10" t="n">
-        <v>44600.86940020887</v>
-      </c>
-      <c r="C22" t="inlineStr">
+        <v>44600.86940020834</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>157_live</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>75</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E22" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="5" t="n">
         <v>7.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>44623.8548628125</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>158_live</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>44635.83261105324</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>htfx158</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>44648.81547945602</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>159live</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>44663.81111160265</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>160_live</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>75</v>
+      </c>
+      <c r="E26" t="n">
+        <v>75</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -1612,6 +1612,141 @@
       </c>
       <c r="G41" s="5" t="n">
         <v>1.93</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>44736.67623707176</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>163_flowwiintt</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>44740.33793734953</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>163_relday</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>44755.4291162037</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>164_fstcycle</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>44755.61241644676</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>164_scndcycle</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>44756.49477381945</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>164finalrun</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -1633,7 +1768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -2281,6 +2416,60 @@
         <v>2.09</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>44740.51116935185</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>163_beta</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>44756.52983346065</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>164_beta</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2294,7 +2483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -2997,30 +3186,84 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>2022-04-12</t>
         </is>
       </c>
       <c r="B26" s="10" t="n">
-        <v>44663.81111160265</v>
-      </c>
-      <c r="C26" t="inlineStr">
+        <v>44663.81111159722</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>160_live</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>75</v>
-      </c>
-      <c r="E26" t="n">
-        <v>75</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="D26" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
         <v>2.11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>44740.84504868055</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>163_live</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>44756.81275668358</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>164_live</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>75</v>
+      </c>
+      <c r="E28" t="n">
+        <v>75</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.09</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -1747,6 +1747,141 @@
       </c>
       <c r="G46" s="5" t="n">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>44775.63911009259</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>165_fstcycle</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>44776.66170651621</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>165_scndcycle</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>44777.38479631944</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>165_finalrun</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>44795.6597746875</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>166fstcycle</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>44796.89887210648</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>166cyclescnd</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -1768,7 +1903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -2470,6 +2605,60 @@
         <v>2.08</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>44777.55698798611</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>165beta</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>44797.51873453704</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>166_beta</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2483,7 +2672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -3240,30 +3429,84 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>2022-07-14</t>
         </is>
       </c>
       <c r="B28" s="10" t="n">
-        <v>44756.81275668358</v>
-      </c>
-      <c r="C28" t="inlineStr">
+        <v>44756.81275667824</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>164_live</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>75</v>
-      </c>
-      <c r="E28" t="n">
-        <v>75</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="D28" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
         <v>2.09</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>44777.81109689815</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>165_live</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>44797.91305876953</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>166_live</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>75</v>
+      </c>
+      <c r="E30" t="n">
+        <v>75</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -1882,6 +1882,87 @@
       </c>
       <c r="G51" s="5" t="n">
         <v>1.92</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>44820.60906491898</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>fstcyc167</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>44823.6235595949</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>scndcycle167</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>44824.36937221065</v>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>finalrun167</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -1903,7 +1984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -2659,6 +2740,33 @@
         <v>2.11</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>44824.51490568312</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>beta167</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>75</v>
+      </c>
+      <c r="E28" t="n">
+        <v>75</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2672,7 +2780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -3483,30 +3591,57 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>2022-08-24</t>
         </is>
       </c>
       <c r="B30" s="10" t="n">
-        <v>44797.91305876953</v>
-      </c>
-      <c r="C30" t="inlineStr">
+        <v>44797.91305877315</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>166_live</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>75</v>
-      </c>
-      <c r="E30" t="n">
-        <v>75</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="D30" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
         <v>2.19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>44818.4146512037</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>livehtfxsep166</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>2.92</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -1963,6 +1963,141 @@
       </c>
       <c r="G54" s="5" t="n">
         <v>1.89</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>44844.59864908564</v>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>scndcycl168</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="n">
+        <v>44845.39133387731</v>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>168fnlrun</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="B57" s="10" t="n">
+        <v>44867.66900571759</v>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>scndcycle169</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B58" s="10" t="n">
+        <v>44868.44561469907</v>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>finalrun169</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="B59" s="10" t="n">
+        <v>44893.61944978334</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>170scndcycle</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>75</v>
+      </c>
+      <c r="E59" t="n">
+        <v>75</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.73</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -1984,7 +2119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -2741,30 +2876,84 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>2022-09-20</t>
         </is>
       </c>
       <c r="B28" s="10" t="n">
-        <v>44824.51490568312</v>
-      </c>
-      <c r="C28" t="inlineStr">
+        <v>44824.51490568287</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>beta167</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>75</v>
-      </c>
-      <c r="E28" t="n">
-        <v>75</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="D28" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
         <v>2.12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>44845.54953640046</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>beta168</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>44868.5246446875</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>beta169</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>2.16</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +2969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -3642,6 +3831,87 @@
       </c>
       <c r="G31" s="5" t="n">
         <v>2.92</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>44824.86744983796</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>live167</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>44845.84892689815</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>live168</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>44868.83243144676</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>live169</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -2074,30 +2074,111 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="5" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
       <c r="B59" s="10" t="n">
-        <v>44893.61944978334</v>
-      </c>
-      <c r="C59" t="inlineStr">
+        <v>44893.61944978009</v>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>170scndcycle</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>75</v>
-      </c>
-      <c r="E59" t="n">
-        <v>75</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="D59" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5" t="n">
         <v>1.73</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="B60" s="10" t="n">
+        <v>44914.48548076389</v>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>finalrun171</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B61" s="10" t="n">
+        <v>44945.6695090625</v>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>scnd172release</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B62" s="10" t="n">
+        <v>44946.40009039352</v>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>finalrun172</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>1.98</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -2119,7 +2200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -2956,6 +3037,60 @@
         <v>2.16</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>44894.53880453703</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>170beta</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>44946.57096972222</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>172beta</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2969,7 +3104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -3912,6 +4047,60 @@
       </c>
       <c r="G34" s="5" t="n">
         <v>2.25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>44894.88387527778</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>170live</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>44946.89340410005</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>172live</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>75</v>
+      </c>
+      <c r="E36" t="n">
+        <v>74</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.47</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -2179,6 +2179,60 @@
       </c>
       <c r="G62" s="5" t="n">
         <v>1.98</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B63" s="10" t="n">
+        <v>44974.44220613426</v>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>173cyclefst</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B64" s="10" t="n">
+        <v>44977.40638398148</v>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>173fnlrun</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -2200,7 +2254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -3091,6 +3145,33 @@
         <v>3.18</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>44977.58886039352</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>173beta</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3104,7 +3185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -4077,30 +4158,57 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>2023-01-20</t>
         </is>
       </c>
       <c r="B36" s="10" t="n">
-        <v>44946.89340410005</v>
-      </c>
-      <c r="C36" t="inlineStr">
+        <v>44946.89340409722</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>172live</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>75</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E36" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="5" t="n">
         <v>2.47</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>44977.83604617552</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>live173</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>75</v>
+      </c>
+      <c r="E37" t="n">
+        <v>75</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -2233,6 +2233,87 @@
       </c>
       <c r="G64" s="5" t="n">
         <v>1.82</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
+      </c>
+      <c r="B65" s="10" t="n">
+        <v>44995.79393532407</v>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>174ffiinnalrun</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F65" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B66" s="10" t="n">
+        <v>44998.4674494213</v>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>174finalrun</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="n">
+        <v>45016.4484740162</v>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>175fnlrun</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="5" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -2254,7 +2335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -3172,6 +3253,60 @@
         <v>2.26</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>44998.53425512731</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>174beta</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>45016.52991116898</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>175beta</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3185,7 +3320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -4185,30 +4320,138 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
       <c r="B37" s="10" t="n">
-        <v>44977.83604617552</v>
-      </c>
-      <c r="C37" t="inlineStr">
+        <v>44977.83604618056</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>live173</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>75</v>
-      </c>
-      <c r="E37" t="n">
-        <v>75</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="D37" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
         <v>2.7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>44986.69350667824</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>173angularvrs</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>44987.43611568287</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>liveangular173</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>44998.83719814815</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>174live</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>45016.79465128104</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>175live</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>75</v>
+      </c>
+      <c r="E41" t="n">
+        <v>75</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.34</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -2314,6 +2314,60 @@
       </c>
       <c r="G67" s="5" t="n">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B68" s="10" t="n">
+        <v>45034.55057184028</v>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>176firsttrail</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B69" s="10" t="n">
+        <v>45034.63043397594</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>176fstscndtr</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>75</v>
+      </c>
+      <c r="E69" t="n">
+        <v>71</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -4428,29 +4482,29 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
       <c r="B41" s="10" t="n">
-        <v>45016.79465128104</v>
-      </c>
-      <c r="C41" t="inlineStr">
+        <v>45016.79465128472</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>175live</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>75</v>
-      </c>
-      <c r="E41" t="n">
-        <v>75</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="D41" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="n">
         <v>2.34</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -2344,30 +2344,84 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="5" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
       <c r="B69" s="10" t="n">
-        <v>45034.63043397594</v>
-      </c>
-      <c r="C69" t="inlineStr">
+        <v>45034.63043398148</v>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
         <is>
           <t>176fstscndtr</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>75</v>
-      </c>
-      <c r="E69" t="n">
+      <c r="D69" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E69" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69" s="5" t="n">
         <v>2.53</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B70" s="10" t="n">
+        <v>45035.69458315972</v>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>176scndcyc</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B71" s="10" t="n">
+        <v>45036.41110563657</v>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>176fnlruntest</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E71" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="5" t="n">
+        <v>2.59</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -2389,7 +2443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -3361,6 +3415,33 @@
         <v>3.09</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>45036.51553642361</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>176beta</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3374,7 +3455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -4506,6 +4587,60 @@
       </c>
       <c r="G41" s="5" t="n">
         <v>2.34</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>45050.75110488426</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>176fsst</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>45054.53832030918</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>176htfxtrl</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>77</v>
+      </c>
+      <c r="E43" t="n">
+        <v>73</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -2422,6 +2422,222 @@
       </c>
       <c r="G71" s="5" t="n">
         <v>2.59</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="B72" s="10" t="n">
+        <v>45062.8242437963</v>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>177ffstcycle</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="B73" s="10" t="n">
+        <v>45063.65794126158</v>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>177scncycle</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="5" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B74" s="10" t="n">
+        <v>45064.36637789352</v>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>177fnlrun</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E74" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F74" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="B75" s="10" t="n">
+        <v>45069.66298762731</v>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>177htfx</t>
+        </is>
+      </c>
+      <c r="D75" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E75" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F75" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="5" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B76" s="10" t="n">
+        <v>45071.63184159722</v>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>178dayone</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B77" s="10" t="n">
+        <v>45072.57108248842</v>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>178daytwo</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F77" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" s="5" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-29</t>
+        </is>
+      </c>
+      <c r="B78" s="10" t="n">
+        <v>45075.49612707176</v>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>178daythree</t>
+        </is>
+      </c>
+      <c r="D78" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F78" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B79" s="10" t="n">
+        <v>45089.67689315221</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>178daytest</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>77</v>
+      </c>
+      <c r="E79" t="n">
+        <v>75</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -2443,7 +2659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -3442,6 +3658,33 @@
         <v>3.38</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>45064.49906263889</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>177beta</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3455,7 +3698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -4617,30 +4860,57 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
       </c>
       <c r="B43" s="10" t="n">
-        <v>45054.53832030918</v>
-      </c>
-      <c r="C43" t="inlineStr">
+        <v>45054.5383203125</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>176htfxtrl</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="5" t="n">
         <v>77</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="5" t="n">
         <v>2.53</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>45065.584995</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>177live</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>1.98</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -2614,30 +2614,57 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="5" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
       <c r="B79" s="10" t="n">
-        <v>45089.67689315221</v>
-      </c>
-      <c r="C79" t="inlineStr">
+        <v>45089.67689314815</v>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
         <is>
           <t>178daytest</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="5" t="n">
         <v>77</v>
       </c>
-      <c r="E79" t="n">
-        <v>75</v>
-      </c>
-      <c r="F79" t="n">
+      <c r="E79" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F79" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79" s="5" t="n">
         <v>2.43</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B80" s="10" t="n">
+        <v>45138.39778694444</v>
+      </c>
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>180fnlrun</t>
+        </is>
+      </c>
+      <c r="D80" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E80" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F80" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -2659,7 +2686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -3685,6 +3712,33 @@
         <v>2.13</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>45139.55038478009</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>180beta</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3698,7 +3752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -4911,6 +4965,33 @@
       </c>
       <c r="G44" s="5" t="n">
         <v>1.98</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>45139.84477570205</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>180live</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>77</v>
+      </c>
+      <c r="E45" t="n">
+        <v>77</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -2665,6 +2665,411 @@
       </c>
       <c r="G80" s="5" t="n">
         <v>1.93</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B81" s="10" t="n">
+        <v>45197.8848709838</v>
+      </c>
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t>183testwaf</t>
+        </is>
+      </c>
+      <c r="D81" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E81" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F81" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="5" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B82" s="10" t="n">
+        <v>45202.477985625</v>
+      </c>
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>183runscnd</t>
+        </is>
+      </c>
+      <c r="D82" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E82" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F82" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B83" s="10" t="n">
+        <v>45203.42417197917</v>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>183fnlrun</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E83" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F83" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B84" s="10" t="n">
+        <v>45226.6391593287</v>
+      </c>
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>183fstrun</t>
+        </is>
+      </c>
+      <c r="D84" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E84" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F84" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B85" s="10" t="n">
+        <v>45229.3588315625</v>
+      </c>
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>184fnlrun</t>
+        </is>
+      </c>
+      <c r="D85" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E85" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F85" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" s="5" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B86" s="10" t="n">
+        <v>45258.75084549769</v>
+      </c>
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>185scnddyle</t>
+        </is>
+      </c>
+      <c r="D86" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E86" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F86" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="5" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B87" s="10" t="n">
+        <v>45259.33340916667</v>
+      </c>
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t>185lastcyc</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E87" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F87" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B88" s="10" t="n">
+        <v>45275.70411982639</v>
+      </c>
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>186scndcycle</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F88" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="5" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B89" s="10" t="n">
+        <v>45278.43369190972</v>
+      </c>
+      <c r="C89" s="5" t="inlineStr">
+        <is>
+          <t>186fnlruun</t>
+        </is>
+      </c>
+      <c r="D89" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E89" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F89" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="5" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B90" s="10" t="n">
+        <v>45301.34882313658</v>
+      </c>
+      <c r="C90" s="5" t="inlineStr">
+        <is>
+          <t>187lstcycle</t>
+        </is>
+      </c>
+      <c r="D90" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E90" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F90" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B91" s="10" t="n">
+        <v>45323.66786571759</v>
+      </c>
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>188firstcyc</t>
+        </is>
+      </c>
+      <c r="D91" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E91" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F91" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G91" s="5" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B92" s="10" t="n">
+        <v>45324.85084966436</v>
+      </c>
+      <c r="C92" s="5" t="inlineStr">
+        <is>
+          <t>188scndcycle</t>
+        </is>
+      </c>
+      <c r="D92" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E92" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F92" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="5" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B93" s="10" t="n">
+        <v>45327.40988884259</v>
+      </c>
+      <c r="C93" s="5" t="inlineStr">
+        <is>
+          <t>188lstrun</t>
+        </is>
+      </c>
+      <c r="D93" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E93" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F93" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" s="5" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B94" s="10" t="n">
+        <v>45358.55849167824</v>
+      </c>
+      <c r="C94" s="5" t="inlineStr">
+        <is>
+          <t>189scncycle</t>
+        </is>
+      </c>
+      <c r="D94" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E94" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F94" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B95" s="10" t="n">
+        <v>45359.37407701389</v>
+      </c>
+      <c r="C95" s="5" t="inlineStr">
+        <is>
+          <t>189fnlrun</t>
+        </is>
+      </c>
+      <c r="D95" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E95" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F95" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G95" s="5" t="n">
+        <v>2.49</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -2686,7 +3091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -3739,6 +4144,195 @@
         <v>2.09</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>45203.55460626158</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>183beta</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>45229.56758396991</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>184beta</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>45259.61269996528</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>185beta</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>45278.53454678241</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>186beta</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>45301.56951414352</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>187betaa</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>45327.55457575231</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>188beta</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>45359.46280734954</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>189beta</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3752,7 +4346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -4968,30 +5562,246 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="5" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
       <c r="B45" s="10" t="n">
-        <v>45139.84477570205</v>
-      </c>
-      <c r="C45" t="inlineStr">
+        <v>45139.84477570602</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>180live</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>77</v>
-      </c>
-      <c r="E45" t="n">
-        <v>77</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="D45" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="n">
         <v>2.3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>45203.90664355324</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>183live</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>45217.60338030093</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>183waf</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>45229.82792059028</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>184lliivvee</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>45259.87389408565</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>185live</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>45279.503955</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>186livvee</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>45301.8466500463</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>187live</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>45327.89630197917</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>188live</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>69</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>45359.74686114222</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>189livee</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>77</v>
+      </c>
+      <c r="E53" t="n">
+        <v>73</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4.56</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -3070,6 +3070,114 @@
       </c>
       <c r="G95" s="5" t="n">
         <v>2.49</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B96" s="10" t="n">
+        <v>45380.40641232639</v>
+      </c>
+      <c r="C96" s="5" t="inlineStr">
+        <is>
+          <t>190fstcycle</t>
+        </is>
+      </c>
+      <c r="D96" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E96" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F96" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" s="5" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B97" s="10" t="n">
+        <v>45383.37909143518</v>
+      </c>
+      <c r="C97" s="5" t="inlineStr">
+        <is>
+          <t>190fnlrun</t>
+        </is>
+      </c>
+      <c r="D97" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E97" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F97" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="5" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B98" s="10" t="n">
+        <v>45414.49204320602</v>
+      </c>
+      <c r="C98" s="5" t="inlineStr">
+        <is>
+          <t>191fstcycle</t>
+        </is>
+      </c>
+      <c r="D98" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E98" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F98" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G98" s="5" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B99" s="10" t="n">
+        <v>45415.35419732639</v>
+      </c>
+      <c r="C99" s="5" t="inlineStr">
+        <is>
+          <t>191lstrun</t>
+        </is>
+      </c>
+      <c r="D99" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E99" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F99" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" s="5" t="n">
+        <v>2.09</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -3091,7 +3199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -4333,6 +4441,60 @@
         <v>3.86</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>45383.54464738426</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>190betatest</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>45415.61708020808</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>191beta</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>77</v>
+      </c>
+      <c r="E47" t="n">
+        <v>75</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4346,7 +4508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -5778,30 +5940,57 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="5" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
       <c r="B53" s="10" t="n">
-        <v>45359.74686114222</v>
-      </c>
-      <c r="C53" t="inlineStr">
+        <v>45359.74686114583</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
         <is>
           <t>189livee</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>77</v>
-      </c>
-      <c r="E53" t="n">
+      <c r="D53" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E53" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53" s="5" t="n">
         <v>4.56</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>45383.86024054398</v>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>190livee</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>5.81</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -4469,29 +4469,29 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="5" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
       </c>
       <c r="B47" s="10" t="n">
-        <v>45415.61708020808</v>
-      </c>
-      <c r="C47" t="inlineStr">
+        <v>45415.61708020834</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
         <is>
           <t>191beta</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>77</v>
-      </c>
-      <c r="E47" t="n">
-        <v>75</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="D47" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F47" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47" s="5" t="n">
         <v>5.4</v>
       </c>
     </row>
@@ -4508,7 +4508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -5991,6 +5991,33 @@
       </c>
       <c r="G54" s="5" t="n">
         <v>5.81</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>45418.57309147702</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>191live</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>77</v>
+      </c>
+      <c r="E55" t="n">
+        <v>76</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4.32</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -3178,6 +3178,33 @@
       </c>
       <c r="G99" s="5" t="n">
         <v>2.09</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B100" s="10" t="n">
+        <v>45467.46866179398</v>
+      </c>
+      <c r="C100" s="5" t="inlineStr">
+        <is>
+          <t>193uifixes</t>
+        </is>
+      </c>
+      <c r="D100" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E100" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="F100" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G100" s="5" t="n">
+        <v>4.63</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -4508,7 +4535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
@@ -5994,30 +6021,57 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
       <c r="B55" s="10" t="n">
-        <v>45418.57309147702</v>
-      </c>
-      <c r="C55" t="inlineStr">
+        <v>45418.57309148148</v>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>191live</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>77</v>
-      </c>
-      <c r="E55" t="n">
+      <c r="D55" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E55" s="5" t="n">
         <v>76</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55" s="5" t="n">
         <v>4.32</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="n">
+        <v>45467.6619865659</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>193livepytest</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>77</v>
+      </c>
+      <c r="E56" t="n">
+        <v>77</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MANAGE_INTERVIEWERS_HISTORY_DATA.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -3205,6 +3205,60 @@
       </c>
       <c r="G100" s="5" t="n">
         <v>4.63</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B101" s="10" t="n">
+        <v>45489.64904024306</v>
+      </c>
+      <c r="C101" s="5" t="inlineStr">
+        <is>
+          <t>194fstcycle</t>
+        </is>
+      </c>
+      <c r="D101" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E101" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F101" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="5" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B102" s="10" t="n">
+        <v>45491.3111491551</v>
+      </c>
+      <c r="C102" s="5" t="inlineStr">
+        <is>
+          <t>194fnlrun</t>
+        </is>
+      </c>
+      <c r="D102" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E102" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F102" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" s="5" t="n">
+        <v>2.29</v>
       </c>
     </row>
     <row r="1048571" ht="12.8" customHeight="1" s="6"/>
@@ -3226,7 +3280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
@@ -4520,6 +4574,33 @@
       </c>
       <c r="G47" s="5" t="n">
         <v>5.4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>45491.60258537834</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>194beta</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>77</v>
+      </c>
+      <c r="E48" t="n">
+        <v>77</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.35</v>
       </c>
     </row>
   </sheetData>
@@ -6048,29 +6129,29 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="5" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
       </c>
       <c r="B56" s="10" t="n">
-        <v>45467.6619865659</v>
-      </c>
-      <c r="C56" t="inlineStr">
+        <v>45467.6619865625</v>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
         <is>
           <t>193livepytest</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>77</v>
-      </c>
-      <c r="E56" t="n">
-        <v>77</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
+      <c r="D56" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5" t="n">
         <v>1.94</v>
       </c>
     </row>
